--- a/pred_ohlcv/54_21/2020-01-21 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 HYC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-4387069.556899999</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4247777.961599999</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-4202119.812699999</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-3715602.389699999</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-3219813.224199999</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3186033.196899999</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-3225953.089399999</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3232222.310199999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2945972.310199999</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2891562.228599999</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2691562.228599999</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-2774525.586299998</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-2774525.586299998</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-2784525.586299998</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-2738535.586299998</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-2738267.586299998</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-2784257.586299998</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-2784257.586299998</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2684257.586299998</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-3234468.540699998</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3159344.829899998</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-3159344.829899998</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-3467074.829899998</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-3467074.829899998</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-3466808.441099999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-3467075.052299999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-3466277.052299999</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-3466277.052299999</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-2937096.026099999</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-2771067.777699999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-2511332.777699999</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-2458358.733799999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-2559575.271799999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-2347339.696099999</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-1812690.913399999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-1340055.458199999</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1234527.458199999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-715723.221769202</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1037381.524869202</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1028117.899169202</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1222632.459769202</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1186584.878469202</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1186323.878469202</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1599323.878469202</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2258505.114869202</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2258242.114869202</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-2524089.849669202</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2691279.849669202</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1678157.960569202</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2023989.855369202</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2023462.855369202</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-2023910.647269202</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1990165.439669202</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2006848.999669202</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2035940.262169202</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-2023265.743269202</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-2115608.789669202</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 HYC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 HYC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4524219.190899999</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-3237916.785599999</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-3186033.196899999</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-3121430.102399999</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-2842203.745799999</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-3187813.089399999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-3231561.310199999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-3232222.310199999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-2945972.310199999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-2704972.310199999</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-2764743.400099999</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-2891562.228599999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-2691562.228599999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-2684257.586299998</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-3159344.829899998</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-3466809.052299999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-3466543.052299999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-1234791.458199999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-1234527.458199999</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-715723.221769202</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-1037381.524869202</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1028117.899169202</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1222632.459769202</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1186584.878469202</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1186323.878469202</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1599323.878469202</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-1739700.878469202</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2258505.114869202</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-2691279.849669202</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-2023989.855369202</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-2023462.855369202</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-2006848.999669202</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2035940.262169202</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1852817.044025212</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
